--- a/en/downloads/data-excel/1.5.1.xlsx
+++ b/en/downloads/data-excel/1.5.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -8164,10 +8164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8178,7 +8178,7 @@
     <col min="4" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8217,8 +8217,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -8267,8 +8268,11 @@
       <c r="P4" s="12">
         <v>2019</v>
       </c>
+      <c r="Q4" s="12">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8317,8 +8321,11 @@
       <c r="P5" s="13">
         <v>17</v>
       </c>
+      <c r="Q5" s="13">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -8367,8 +8374,11 @@
       <c r="P6" s="20">
         <v>8</v>
       </c>
+      <c r="Q6" s="20">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
@@ -8417,8 +8427,11 @@
       <c r="P7" s="21">
         <v>9</v>
       </c>
+      <c r="Q7" s="21">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -8467,8 +8480,11 @@
       <c r="P8" s="31">
         <v>6</v>
       </c>
+      <c r="Q8" s="31">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -8517,8 +8533,11 @@
       <c r="P9" s="20">
         <v>4</v>
       </c>
+      <c r="Q9" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -8567,8 +8586,11 @@
       <c r="P10" s="21">
         <v>2</v>
       </c>
+      <c r="Q10" s="21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8617,8 +8639,11 @@
       <c r="P11" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="Q11" s="34">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -8667,8 +8692,11 @@
       <c r="P12" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q12" s="20">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -8717,8 +8745,11 @@
       <c r="P13" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -8767,8 +8798,11 @@
       <c r="P14" s="34">
         <v>5</v>
       </c>
+      <c r="Q14" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
@@ -8817,8 +8851,11 @@
       <c r="P15" s="20">
         <v>2</v>
       </c>
+      <c r="Q15" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -8867,8 +8904,11 @@
       <c r="P16" s="21">
         <v>3</v>
       </c>
+      <c r="Q16" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -8917,8 +8957,11 @@
       <c r="P17" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="Q17" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
@@ -8967,8 +9010,11 @@
       <c r="P18" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q18" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -9017,8 +9063,11 @@
       <c r="P19" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="Q19" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -9067,8 +9116,11 @@
       <c r="P20" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="Q20" s="34">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -9117,8 +9169,11 @@
       <c r="P21" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q21" s="20">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -9167,8 +9222,11 @@
       <c r="P22" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="Q22" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -9217,8 +9275,11 @@
       <c r="P23" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="Q23" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
@@ -9267,8 +9328,11 @@
       <c r="P24" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q24" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -9317,8 +9381,11 @@
       <c r="P25" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="Q25" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9367,8 +9434,11 @@
       <c r="P26" s="34">
         <v>6</v>
       </c>
+      <c r="Q26" s="34">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
@@ -9417,8 +9487,11 @@
       <c r="P27" s="20">
         <v>2</v>
       </c>
+      <c r="Q27" s="20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -9467,8 +9540,11 @@
       <c r="P28" s="21">
         <v>4</v>
       </c>
+      <c r="Q28" s="21">
+        <v>14</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -9517,8 +9593,11 @@
       <c r="P29" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="Q29" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -9567,8 +9646,11 @@
       <c r="P30" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q30" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -9617,8 +9699,11 @@
       <c r="P31" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="Q31" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -9667,8 +9752,11 @@
       <c r="P32" s="31" t="s">
         <v>48</v>
       </c>
+      <c r="Q32" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
@@ -9717,8 +9805,11 @@
       <c r="P33" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="Q33" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
@@ -9767,8 +9858,11 @@
       <c r="P34" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="Q34" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>47</v>
       </c>

--- a/en/downloads/data-excel/1.5.1.xlsx
+++ b/en/downloads/data-excel/1.5.1.xlsx
@@ -8167,7 +8167,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8746,7 +8746,7 @@
         <v>48</v>
       </c>
       <c r="Q13" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/1.5.1.xlsx
+++ b/en/downloads/data-excel/1.5.1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -8164,11 +8164,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8178,7 +8176,7 @@
     <col min="4" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
@@ -8189,7 +8187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -8200,7 +8198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8218,8 +8216,9 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -8271,8 +8270,11 @@
       <c r="Q4" s="12">
         <v>2020</v>
       </c>
+      <c r="R4" s="12">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8324,8 +8326,11 @@
       <c r="Q5" s="13">
         <v>51</v>
       </c>
+      <c r="R5" s="13">
+        <v>109</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -8377,8 +8382,11 @@
       <c r="Q6" s="20">
         <v>29</v>
       </c>
+      <c r="R6" s="20">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
@@ -8430,8 +8438,11 @@
       <c r="Q7" s="21">
         <v>22</v>
       </c>
+      <c r="R7" s="21">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -8483,8 +8494,11 @@
       <c r="Q8" s="31">
         <v>5</v>
       </c>
+      <c r="R8" s="31">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -8536,8 +8550,11 @@
       <c r="Q9" s="20">
         <v>3</v>
       </c>
+      <c r="R9" s="20">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -8589,8 +8606,11 @@
       <c r="Q10" s="21">
         <v>2</v>
       </c>
+      <c r="R10" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8642,8 +8662,11 @@
       <c r="Q11" s="34">
         <v>15</v>
       </c>
+      <c r="R11" s="34">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -8695,8 +8718,11 @@
       <c r="Q12" s="20">
         <v>9</v>
       </c>
+      <c r="R12" s="20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -8748,8 +8774,11 @@
       <c r="Q13" s="21">
         <v>6</v>
       </c>
+      <c r="R13" s="21">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -8801,8 +8830,11 @@
       <c r="Q14" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="R14" s="34">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
@@ -8854,8 +8886,11 @@
       <c r="Q15" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="R15" s="20">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -8907,8 +8942,11 @@
       <c r="Q16" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="R16" s="21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -8960,8 +8998,11 @@
       <c r="Q17" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="R17" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
@@ -9013,8 +9054,11 @@
       <c r="Q18" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="R18" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -9066,8 +9110,11 @@
       <c r="Q19" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="R19" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -9119,8 +9166,11 @@
       <c r="Q20" s="34">
         <v>7</v>
       </c>
+      <c r="R20" s="34">
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -9172,8 +9222,11 @@
       <c r="Q21" s="20">
         <v>7</v>
       </c>
+      <c r="R21" s="20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -9225,8 +9278,11 @@
       <c r="Q22" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="R22" s="21">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -9278,8 +9334,11 @@
       <c r="Q23" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="R23" s="34">
+        <v>9</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
@@ -9331,8 +9390,11 @@
       <c r="Q24" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="R24" s="20">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -9384,8 +9446,11 @@
       <c r="Q25" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="R25" s="21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9437,8 +9502,11 @@
       <c r="Q26" s="34">
         <v>24</v>
       </c>
+      <c r="R26" s="34">
+        <v>20</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
@@ -9490,8 +9558,11 @@
       <c r="Q27" s="20">
         <v>10</v>
       </c>
+      <c r="R27" s="20">
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -9543,8 +9614,11 @@
       <c r="Q28" s="21">
         <v>14</v>
       </c>
+      <c r="R28" s="21">
+        <v>11</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -9596,8 +9670,11 @@
       <c r="Q29" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="R29" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -9649,8 +9726,11 @@
       <c r="Q30" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="R30" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -9702,8 +9782,11 @@
       <c r="Q31" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="R31" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -9755,8 +9838,11 @@
       <c r="Q32" s="31" t="s">
         <v>48</v>
       </c>
+      <c r="R32" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
@@ -9808,8 +9894,11 @@
       <c r="Q33" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="R33" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
@@ -9861,8 +9950,11 @@
       <c r="Q34" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="R34" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>47</v>
       </c>

--- a/en/downloads/data-excel/1.5.1.xlsx
+++ b/en/downloads/data-excel/1.5.1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -8164,9 +8164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8176,7 +8178,7 @@
     <col min="4" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8217,8 +8219,9 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -8273,8 +8276,11 @@
       <c r="R4" s="12">
         <v>2021</v>
       </c>
+      <c r="S4" s="12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8329,8 +8335,11 @@
       <c r="R5" s="13">
         <v>109</v>
       </c>
+      <c r="S5" s="13">
+        <v>135</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -8385,8 +8394,11 @@
       <c r="R6" s="20">
         <v>74</v>
       </c>
+      <c r="S6" s="20">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
@@ -8441,8 +8453,11 @@
       <c r="R7" s="21">
         <v>35</v>
       </c>
+      <c r="S7" s="21">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -8497,8 +8512,11 @@
       <c r="R8" s="31">
         <v>36</v>
       </c>
+      <c r="S8" s="31">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -8553,8 +8571,11 @@
       <c r="R9" s="20">
         <v>35</v>
       </c>
+      <c r="S9" s="20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -8609,8 +8630,11 @@
       <c r="R10" s="21">
         <v>1</v>
       </c>
+      <c r="S10" s="21">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8665,8 +8689,11 @@
       <c r="R11" s="34">
         <v>15</v>
       </c>
+      <c r="S11" s="34">
+        <v>17</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -8721,8 +8748,11 @@
       <c r="R12" s="20">
         <v>8</v>
       </c>
+      <c r="S12" s="20">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -8777,8 +8807,11 @@
       <c r="R13" s="21">
         <v>7</v>
       </c>
+      <c r="S13" s="21">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -8833,8 +8866,11 @@
       <c r="R14" s="34">
         <v>12</v>
       </c>
+      <c r="S14" s="34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
@@ -8889,8 +8925,11 @@
       <c r="R15" s="20">
         <v>7</v>
       </c>
+      <c r="S15" s="20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -8945,8 +8984,11 @@
       <c r="R16" s="21">
         <v>5</v>
       </c>
+      <c r="S16" s="21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -9001,8 +9043,11 @@
       <c r="R17" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="S17" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
@@ -9057,8 +9102,11 @@
       <c r="R18" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="S18" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -9113,8 +9161,11 @@
       <c r="R19" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="S19" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -9169,8 +9220,11 @@
       <c r="R20" s="34">
         <v>17</v>
       </c>
+      <c r="S20" s="34">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -9225,8 +9279,11 @@
       <c r="R21" s="20">
         <v>8</v>
       </c>
+      <c r="S21" s="20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -9281,8 +9338,11 @@
       <c r="R22" s="21">
         <v>9</v>
       </c>
+      <c r="S22" s="21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -9337,8 +9397,11 @@
       <c r="R23" s="34">
         <v>9</v>
       </c>
+      <c r="S23" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
@@ -9393,8 +9456,11 @@
       <c r="R24" s="20">
         <v>7</v>
       </c>
+      <c r="S24" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -9449,8 +9515,11 @@
       <c r="R25" s="21">
         <v>2</v>
       </c>
+      <c r="S25" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9505,8 +9574,11 @@
       <c r="R26" s="34">
         <v>20</v>
       </c>
+      <c r="S26" s="34">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
@@ -9561,8 +9633,11 @@
       <c r="R27" s="20">
         <v>9</v>
       </c>
+      <c r="S27" s="20">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -9617,8 +9692,11 @@
       <c r="R28" s="21">
         <v>11</v>
       </c>
+      <c r="S28" s="21">
+        <v>6</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -9673,8 +9751,11 @@
       <c r="R29" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="S29" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -9729,8 +9810,11 @@
       <c r="R30" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="S30" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -9785,8 +9869,11 @@
       <c r="R31" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="S31" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -9841,8 +9928,11 @@
       <c r="R32" s="31" t="s">
         <v>48</v>
       </c>
+      <c r="S32" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
@@ -9897,8 +9987,11 @@
       <c r="R33" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="S33" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
@@ -9953,8 +10046,11 @@
       <c r="R34" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="S34" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>47</v>
       </c>

--- a/en/downloads/data-excel/1.5.1.xlsx
+++ b/en/downloads/data-excel/1.5.1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -8164,21 +8164,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="1" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>44</v>
       </c>
@@ -8189,7 +8185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
@@ -8200,7 +8196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8220,8 +8216,9 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -8279,8 +8276,11 @@
       <c r="S4" s="12">
         <v>2022</v>
       </c>
+      <c r="T4" s="12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8338,8 +8338,11 @@
       <c r="S5" s="13">
         <v>135</v>
       </c>
+      <c r="T5" s="13">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -8397,8 +8400,11 @@
       <c r="S6" s="20">
         <v>99</v>
       </c>
+      <c r="T6" s="20">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
@@ -8456,8 +8462,11 @@
       <c r="S7" s="21">
         <v>36</v>
       </c>
+      <c r="T7" s="21">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -8515,8 +8524,11 @@
       <c r="S8" s="31">
         <v>97</v>
       </c>
+      <c r="T8" s="31" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -8574,8 +8586,11 @@
       <c r="S9" s="20">
         <v>80</v>
       </c>
+      <c r="T9" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -8633,8 +8648,11 @@
       <c r="S10" s="21">
         <v>17</v>
       </c>
+      <c r="T10" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -8692,8 +8710,11 @@
       <c r="S11" s="34">
         <v>17</v>
       </c>
+      <c r="T11" s="34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -8751,8 +8772,11 @@
       <c r="S12" s="20">
         <v>11</v>
       </c>
+      <c r="T12" s="20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
@@ -8810,8 +8834,11 @@
       <c r="S13" s="21">
         <v>6</v>
       </c>
+      <c r="T13" s="21">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -8869,8 +8896,11 @@
       <c r="S14" s="34">
         <v>5</v>
       </c>
+      <c r="T14" s="34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
@@ -8928,8 +8958,11 @@
       <c r="S15" s="20">
         <v>3</v>
       </c>
+      <c r="T15" s="20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>36</v>
       </c>
@@ -8987,8 +9020,11 @@
       <c r="S16" s="21">
         <v>2</v>
       </c>
+      <c r="T16" s="21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -9046,8 +9082,11 @@
       <c r="S17" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="T17" s="34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
@@ -9105,8 +9144,11 @@
       <c r="S18" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="T18" s="20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -9164,8 +9206,11 @@
       <c r="S19" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="T19" s="21">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -9223,8 +9268,11 @@
       <c r="S20" s="34">
         <v>6</v>
       </c>
+      <c r="T20" s="34">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
@@ -9282,8 +9330,11 @@
       <c r="S21" s="20">
         <v>1</v>
       </c>
+      <c r="T21" s="20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
@@ -9341,8 +9392,11 @@
       <c r="S22" s="21">
         <v>5</v>
       </c>
+      <c r="T22" s="21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -9400,8 +9454,11 @@
       <c r="S23" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="T23" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>35</v>
       </c>
@@ -9459,8 +9516,11 @@
       <c r="S24" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="T24" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -9518,8 +9578,11 @@
       <c r="S25" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="T25" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -9577,8 +9640,11 @@
       <c r="S26" s="34">
         <v>10</v>
       </c>
+      <c r="T26" s="34">
+        <v>18</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
@@ -9636,8 +9702,11 @@
       <c r="S27" s="20">
         <v>4</v>
       </c>
+      <c r="T27" s="20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -9695,8 +9764,11 @@
       <c r="S28" s="21">
         <v>6</v>
       </c>
+      <c r="T28" s="21">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -9754,8 +9826,11 @@
       <c r="S29" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="T29" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -9813,8 +9888,11 @@
       <c r="S30" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="T30" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -9872,8 +9950,11 @@
       <c r="S31" s="21" t="s">
         <v>48</v>
       </c>
+      <c r="T31" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -9931,8 +10012,11 @@
       <c r="S32" s="31" t="s">
         <v>48</v>
       </c>
+      <c r="T32" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
@@ -9990,8 +10074,11 @@
       <c r="S33" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="T33" s="20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>36</v>
       </c>
@@ -10049,8 +10136,11 @@
       <c r="S34" s="24" t="s">
         <v>48</v>
       </c>
+      <c r="T34" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>47</v>
       </c>
